--- a/Día 3/Operaciones.xlsx
+++ b/Día 3/Operaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udemy\Propios\Excel\Prácticas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUSTAVO\Documents\Cursos Udemy\ExcelTotal\Día 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8E2CE0-DB52-4E67-8CB0-C32ADE2FA175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC65ED5-5096-45EB-8B03-81DBA8EBB501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="24120" windowHeight="13020" xr2:uid="{AB698C9C-3990-4F18-AD25-DD962E841999}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{AB698C9C-3990-4F18-AD25-DD962E841999}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,14 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -111,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -156,21 +162,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -183,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -191,7 +182,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -206,7 +196,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,22 +515,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14568208-76FE-43F8-B018-87EFB901F035}">
   <dimension ref="C2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="3:9" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="3:9" ht="31.2" x14ac:dyDescent="0.6">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,160 +539,178 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="5" spans="3:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="3:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="s">
+    <row r="5" spans="3:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="3:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>17</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>11</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>15</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>10</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>9</v>
       </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
+      <c r="I7" s="4">
+        <f>SUM(D7:H7)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>26</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>24</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>19</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>11</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>17</v>
       </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="12" t="s">
+      <c r="I8" s="4">
+        <f t="shared" ref="I8:I12" si="0">SUM(D8:H8)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>25</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>31</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>22</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>20</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <v>21</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>14</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>11</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>23</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>23</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>20</v>
       </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>7</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>8</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>11</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>7</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="3:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="13" t="s">
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>11</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>18</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>19</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>10</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>7</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="C7:K12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:K12">
     <sortCondition descending="1" ref="I7:I12"/>
     <sortCondition ref="C7:C12"/>
   </sortState>
